--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_18-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_18-11.xlsx
@@ -212,6 +212,12 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
     <t>PANTHENOL 2% TOPICAL CREAM 20 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>TUSSISTOP 60 MG 20 TABS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -270,9 +276,6 @@
   </si>
   <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>YEAST MEPACO 60 TABS</t>
@@ -2002,11 +2005,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2028,11 +2031,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2048,17 +2051,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>153.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2080,11 +2083,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>180</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2100,17 +2103,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2126,17 +2129,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>169.19999999999999</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2144,7 +2147,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2152,17 +2155,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>45</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2178,13 +2181,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2204,13 +2207,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>73.319999999999993</v>
+        <v>62</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2230,17 +2233,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>45.5</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2256,17 +2259,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2282,17 +2285,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2300,7 +2303,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2308,13 +2311,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2340,11 +2343,11 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2366,11 +2369,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2386,17 +2389,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2412,17 +2415,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2438,17 +2441,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2456,7 +2459,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2464,13 +2467,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2490,17 +2493,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2508,7 +2511,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2516,17 +2519,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2542,17 +2545,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2568,17 +2571,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2586,7 +2589,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2594,51 +2597,77 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
+        <v>100</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
+        <v>49</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>27</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="26.25" customHeight="1">
-      <c r="K70" s="11">
-        <v>3969.5300000000002</v>
-      </c>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="12">
-        <v>100</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c t="s" r="F71" s="13">
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="K71" s="11">
+        <v>4030.5300000000002</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="12">
         <v>101</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="14"/>
-      <c t="s" r="I71" s="15">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c t="s" r="F72" s="13">
         <v>102</v>
       </c>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
+      <c t="s" r="I72" s="15">
+        <v>103</v>
+      </c>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="209">
+  <mergeCells count="212">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2844,10 +2873,13 @@
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:N72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
